--- a/backend/resource/neo4j_libot.xlsx
+++ b/backend/resource/neo4j_libot.xlsx
@@ -5,22 +5,23 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lin/graph/guotu/libot/backend/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28100" windowHeight="17540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="room" sheetId="1" r:id="rId1"/>
-    <sheet name="area" sheetId="4" r:id="rId2"/>
-    <sheet name="resource" sheetId="2" r:id="rId3"/>
-    <sheet name="floor" sheetId="3" r:id="rId4"/>
-    <sheet name="activity" sheetId="5" r:id="rId5"/>
-    <sheet name="resource_type" sheetId="6" r:id="rId6"/>
+    <sheet name="card" sheetId="7" r:id="rId2"/>
+    <sheet name="area" sheetId="4" r:id="rId3"/>
+    <sheet name="resource" sheetId="2" r:id="rId4"/>
+    <sheet name="floor" sheetId="3" r:id="rId5"/>
+    <sheet name="activity" sheetId="5" r:id="rId6"/>
+    <sheet name="resource_type" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">resource!$A$1:$F$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">resource!$A$1:$F$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">room!$A$1:$W$98</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="778">
   <si>
     <t>总馆北区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,10 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基藏外文图书外借出纳台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周一至周日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -619,18 +616,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国家图书馆读者卡，第二代身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家图书馆读者卡，第二代身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家图书馆读者卡，第二代身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>010-88544355</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -640,14 +625,6 @@
   </si>
   <si>
     <t>提供近年出版的中文图书与部分图书配套光盘的借阅服务；提供首都图书馆联盟还书服务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家图书馆读者卡，第二代身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家图书馆读者卡，第二代身份证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -741,10 +718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国家图书馆读者卡，第二代身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>010-88545952</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -789,10 +762,6 @@
   </si>
   <si>
     <t>提供近二十年来出版的少数民族语文图书、近两年的少数民族语文期刊及当年省级少数民族语文报纸开架阅览服务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家图书馆读者卡，第二代身份证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -813,11 +782,6 @@
   <si>
     <t>近三年低幼读物、绘本读物、拼音读物、桥梁读物、双语读物和民语读物等少儿文献2万余册；固定座位约150个，适合亲子共读。
 为少年儿童提供低幼文献开架阅览、闭架阅览、阅读辅导等服务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>儿童：国家图书馆少年儿童馆读者卡，户口簿，第二代居民身份证，学生证（或学籍卡），护照，港澳通行证
-家长：国家图书馆成人读者卡，户口簿，第二代居民身份证，军官证，护照，港澳通行证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -872,11 +836,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>儿童：国家图书馆少年儿童馆读者卡，户口簿，第二代居民身份证，学生证（或学籍卡），护照，港澳通行证
-家长：国家图书馆成人读者卡，户口簿，第二代居民身份证，军官证，护照，港澳通行证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>010-88545080</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -943,10 +902,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国家图书馆读者卡，第二代身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提供近二十年出版的外文基藏图书外借服务。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1080,10 +1035,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国家图书馆读者卡，第二代身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提供2000年后西文中国学图书；2010年后俄文、日文中国学图书；2015年后小语种中国学图书；2011年后西文、俄文、日文中国学期刊；中国学中文译著、专著及中外文工具书闭架阅览服务。</t>
   </si>
   <si>
@@ -2005,10 +1956,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总馆北区_F1_中文图书借阅区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>稽古厅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2550,10 +2497,6 @@
   </si>
   <si>
     <t>静画，照片，年画，工程图，静画资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金石文献</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3169,12 +3112,114 @@
     <t>临琼楼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>金石文献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录音带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总馆北区_F1_中文图书借阅区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外借</t>
+    <rPh sb="0" eb="1">
+      <t>wai jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基藏外文图书外借出纳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通行证</t>
+    <rPh sb="0" eb="1">
+      <t>tong xing z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二代身份证</t>
+  </si>
+  <si>
+    <t>读者卡</t>
+  </si>
+  <si>
+    <t>年龄</t>
+    <rPh sb="0" eb="1">
+      <t>nian l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满16岁</t>
+  </si>
+  <si>
+    <t>满16岁</t>
+    <rPh sb="0" eb="1">
+      <t>man</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-15岁</t>
+    <rPh sb="5" eb="6">
+      <t>sui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不满13岁</t>
+    <rPh sb="0" eb="1">
+      <t>bu man</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家图书馆读者卡，第二代身份证，读者卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家图书馆少年儿童馆读者卡，读者卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家图书馆读者卡</t>
+  </si>
+  <si>
+    <t>第二代身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读者卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少年儿童图书馆读者卡</t>
+  </si>
+  <si>
+    <t>少年儿童图书馆读者卡</t>
+    <rPh sb="7" eb="8">
+      <t>du zhe ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3264,6 +3309,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3313,7 +3365,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3374,6 +3426,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -3663,8 +3716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W103"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:XFD103"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3695,141 +3748,141 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="C1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E1" t="s">
+        <v>728</v>
+      </c>
+      <c r="F1" t="s">
+        <v>729</v>
+      </c>
+      <c r="G1" t="s">
+        <v>730</v>
+      </c>
+      <c r="H1" t="s">
+        <v>732</v>
+      </c>
+      <c r="I1" t="s">
+        <v>731</v>
+      </c>
+      <c r="J1" t="s">
+        <v>733</v>
+      </c>
+      <c r="K1" t="s">
+        <v>734</v>
+      </c>
+      <c r="L1" t="s">
+        <v>735</v>
+      </c>
+      <c r="M1" t="s">
+        <v>736</v>
+      </c>
+      <c r="N1" t="s">
+        <v>737</v>
+      </c>
+      <c r="O1" t="s">
         <v>738</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="P1" t="s">
         <v>739</v>
       </c>
-      <c r="C1" t="s">
+      <c r="Q1" t="s">
         <v>740</v>
       </c>
-      <c r="D1" t="s">
+      <c r="R1" t="s">
         <v>741</v>
       </c>
-      <c r="E1" t="s">
+      <c r="S1" t="s">
         <v>742</v>
       </c>
-      <c r="F1" t="s">
+      <c r="T1" t="s">
         <v>743</v>
       </c>
-      <c r="G1" t="s">
+      <c r="U1" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="H1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="I1" t="s">
-        <v>745</v>
-      </c>
-      <c r="J1" t="s">
-        <v>747</v>
-      </c>
-      <c r="K1" t="s">
-        <v>748</v>
-      </c>
-      <c r="L1" t="s">
-        <v>749</v>
-      </c>
-      <c r="M1" t="s">
-        <v>750</v>
-      </c>
-      <c r="N1" t="s">
-        <v>751</v>
-      </c>
-      <c r="O1" t="s">
-        <v>752</v>
-      </c>
-      <c r="P1" t="s">
-        <v>753</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>754</v>
-      </c>
-      <c r="R1" t="s">
-        <v>755</v>
-      </c>
-      <c r="S1" t="s">
-        <v>756</v>
-      </c>
-      <c r="T1" t="s">
-        <v>757</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
         <v>46</v>
       </c>
       <c r="G2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" t="s">
         <v>107</v>
       </c>
-      <c r="H2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>108</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>109</v>
       </c>
-      <c r="S2" t="s">
-        <v>110</v>
-      </c>
       <c r="T2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U2" t="s">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="W2" t="s">
-        <v>147</v>
+        <v>771</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -3837,41 +3890,41 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="U3" t="s">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="B4" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="U4" t="s">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>507</v>
+        <v>760</v>
       </c>
       <c r="B5" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
@@ -3880,211 +3933,211 @@
         <v>34</v>
       </c>
       <c r="G5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" t="s">
         <v>111</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>114</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M5" t="s">
         <v>112</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>115</v>
       </c>
-      <c r="K5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" t="s">
+        <v>117</v>
+      </c>
+      <c r="S5" t="s">
         <v>116</v>
       </c>
-      <c r="M5" t="s">
-        <v>113</v>
-      </c>
-      <c r="N5" t="s">
-        <v>116</v>
-      </c>
-      <c r="O5" t="s">
-        <v>107</v>
-      </c>
-      <c r="P5" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>110</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>118</v>
-      </c>
-      <c r="S5" t="s">
-        <v>117</v>
-      </c>
-      <c r="T5" t="s">
-        <v>119</v>
       </c>
       <c r="U5" t="s">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="W5" t="s">
-        <v>152</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N6" t="s">
+        <v>120</v>
+      </c>
+      <c r="O6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q6" t="s">
         <v>107</v>
       </c>
-      <c r="I6" t="s">
-        <v>120</v>
-      </c>
-      <c r="J6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6" t="s">
-        <v>120</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="R6" t="s">
+        <v>116</v>
+      </c>
+      <c r="S6" t="s">
         <v>121</v>
       </c>
-      <c r="O6" t="s">
-        <v>111</v>
-      </c>
-      <c r="P6" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>108</v>
-      </c>
-      <c r="R6" t="s">
-        <v>117</v>
-      </c>
-      <c r="S6" t="s">
-        <v>122</v>
-      </c>
       <c r="T6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U6" t="s">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="W6" t="s">
-        <v>147</v>
+        <v>771</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="B7" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="U7" t="s">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="G8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N8" t="s">
+        <v>120</v>
+      </c>
+      <c r="O8" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" t="s">
         <v>107</v>
       </c>
-      <c r="H8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" t="s">
-        <v>120</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="R8" t="s">
+        <v>116</v>
+      </c>
+      <c r="S8" t="s">
         <v>121</v>
       </c>
-      <c r="O8" t="s">
-        <v>111</v>
-      </c>
-      <c r="P8" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>108</v>
-      </c>
-      <c r="R8" t="s">
-        <v>117</v>
-      </c>
-      <c r="S8" t="s">
-        <v>122</v>
-      </c>
       <c r="T8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U8" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="V8" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="W8" t="s">
-        <v>146</v>
+        <v>771</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -4092,102 +4145,102 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="U9" t="s">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B10" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="U10" t="s">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B11" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="U11" t="s">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="B12" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U12" t="s">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B13" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="U13" t="s">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -4195,13 +4248,13 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="U14" t="s">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -4209,13 +4262,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="U15" t="s">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -4223,169 +4276,169 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="U16" t="s">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="G17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" t="s">
+        <v>119</v>
+      </c>
+      <c r="N17" t="s">
+        <v>120</v>
+      </c>
+      <c r="O17" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" t="s">
         <v>107</v>
       </c>
-      <c r="H17" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" t="s">
-        <v>120</v>
-      </c>
-      <c r="J17" t="s">
-        <v>107</v>
-      </c>
-      <c r="K17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" t="s">
-        <v>107</v>
-      </c>
-      <c r="M17" t="s">
-        <v>120</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="R17" t="s">
+        <v>116</v>
+      </c>
+      <c r="S17" t="s">
         <v>121</v>
       </c>
-      <c r="O17" t="s">
-        <v>111</v>
-      </c>
-      <c r="P17" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>108</v>
-      </c>
-      <c r="R17" t="s">
-        <v>117</v>
-      </c>
-      <c r="S17" t="s">
-        <v>122</v>
-      </c>
       <c r="T17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U17" t="s">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="W17" t="s">
-        <v>145</v>
+        <v>771</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" t="s">
         <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" t="s">
+        <v>119</v>
+      </c>
+      <c r="L18" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" t="s">
+        <v>119</v>
+      </c>
+      <c r="N18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O18" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q18" t="s">
         <v>107</v>
       </c>
-      <c r="H18" t="s">
-        <v>107</v>
-      </c>
-      <c r="I18" t="s">
-        <v>120</v>
-      </c>
-      <c r="J18" t="s">
-        <v>107</v>
-      </c>
-      <c r="K18" t="s">
-        <v>120</v>
-      </c>
-      <c r="L18" t="s">
-        <v>107</v>
-      </c>
-      <c r="M18" t="s">
-        <v>120</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="R18" t="s">
+        <v>116</v>
+      </c>
+      <c r="S18" t="s">
         <v>121</v>
       </c>
-      <c r="O18" t="s">
-        <v>111</v>
-      </c>
-      <c r="P18" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>108</v>
-      </c>
-      <c r="R18" t="s">
-        <v>117</v>
-      </c>
-      <c r="S18" t="s">
-        <v>122</v>
-      </c>
       <c r="T18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U18" t="s">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="W18" t="s">
-        <v>147</v>
+        <v>771</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E19" t="s">
         <v>48</v>
@@ -4394,31 +4447,31 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U19" t="s">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -4429,60 +4482,60 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="U20" t="s">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M21" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="O21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U21" t="s">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
@@ -4493,145 +4546,145 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K22" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U22" t="s">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D23" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E23" t="s">
         <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I23" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" t="s">
+        <v>109</v>
+      </c>
+      <c r="M23" t="s">
+        <v>123</v>
+      </c>
+      <c r="O23" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q23" t="s">
         <v>124</v>
       </c>
-      <c r="K23" t="s">
-        <v>110</v>
-      </c>
-      <c r="M23" t="s">
-        <v>124</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="S23" t="s">
         <v>109</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>125</v>
-      </c>
-      <c r="S23" t="s">
-        <v>110</v>
       </c>
       <c r="U23" t="s">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="B24" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E24" t="s">
         <v>46</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U24" t="s">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B25" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="U25" t="s">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
@@ -4639,13 +4692,13 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="U26" t="s">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
@@ -4653,143 +4706,143 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="U27" t="s">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
         <v>49</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="G28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" t="s">
+        <v>119</v>
+      </c>
+      <c r="L28" t="s">
+        <v>106</v>
+      </c>
+      <c r="M28" t="s">
+        <v>119</v>
+      </c>
+      <c r="N28" t="s">
+        <v>120</v>
+      </c>
+      <c r="O28" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q28" t="s">
         <v>107</v>
       </c>
-      <c r="H28" t="s">
-        <v>107</v>
-      </c>
-      <c r="I28" t="s">
-        <v>120</v>
-      </c>
-      <c r="J28" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" t="s">
-        <v>120</v>
-      </c>
-      <c r="L28" t="s">
-        <v>107</v>
-      </c>
-      <c r="M28" t="s">
-        <v>120</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="R28" t="s">
+        <v>116</v>
+      </c>
+      <c r="S28" t="s">
         <v>121</v>
       </c>
-      <c r="O28" t="s">
-        <v>111</v>
-      </c>
-      <c r="P28" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>108</v>
-      </c>
-      <c r="R28" t="s">
-        <v>117</v>
-      </c>
-      <c r="S28" t="s">
-        <v>122</v>
-      </c>
       <c r="T28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U28" t="s">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="W28" t="s">
-        <v>145</v>
+        <v>771</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="U29" t="s">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="B30" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
         <v>50</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U30" t="s">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
@@ -4797,13 +4850,13 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="U31" t="s">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
@@ -4811,39 +4864,39 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="U32" t="s">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="B33" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="C33" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F33" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I33" t="s">
         <v>30</v>
@@ -4885,10 +4938,10 @@
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="W33" t="s">
-        <v>175</v>
+        <v>771</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
@@ -4896,206 +4949,206 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F34" t="s">
         <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H34" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J34" t="s">
         <v>109</v>
       </c>
-      <c r="I34" t="s">
-        <v>122</v>
-      </c>
-      <c r="J34" t="s">
-        <v>110</v>
-      </c>
       <c r="K34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U34" t="s">
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="W34" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="B35" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="C35" t="s">
         <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E35" t="s">
         <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" t="s">
+        <v>106</v>
+      </c>
+      <c r="I35" t="s">
+        <v>119</v>
+      </c>
+      <c r="J35" t="s">
+        <v>106</v>
+      </c>
+      <c r="K35" t="s">
+        <v>119</v>
+      </c>
+      <c r="L35" t="s">
+        <v>106</v>
+      </c>
+      <c r="M35" t="s">
+        <v>119</v>
+      </c>
+      <c r="N35" t="s">
+        <v>120</v>
+      </c>
+      <c r="O35" t="s">
+        <v>110</v>
+      </c>
+      <c r="P35" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q35" t="s">
         <v>107</v>
       </c>
-      <c r="H35" t="s">
-        <v>107</v>
-      </c>
-      <c r="I35" t="s">
-        <v>120</v>
-      </c>
-      <c r="J35" t="s">
-        <v>107</v>
-      </c>
-      <c r="K35" t="s">
-        <v>120</v>
-      </c>
-      <c r="L35" t="s">
-        <v>107</v>
-      </c>
-      <c r="M35" t="s">
-        <v>120</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="R35" t="s">
+        <v>116</v>
+      </c>
+      <c r="S35" t="s">
         <v>121</v>
       </c>
-      <c r="O35" t="s">
-        <v>111</v>
-      </c>
-      <c r="P35" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>108</v>
-      </c>
-      <c r="R35" t="s">
-        <v>117</v>
-      </c>
-      <c r="S35" t="s">
-        <v>122</v>
-      </c>
       <c r="T35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U35" t="s">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="W35" t="s">
-        <v>175</v>
+        <v>771</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B36" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E36" t="s">
         <v>46</v>
       </c>
       <c r="F36" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" t="s">
+        <v>119</v>
+      </c>
+      <c r="J36" t="s">
+        <v>106</v>
+      </c>
+      <c r="K36" t="s">
+        <v>119</v>
+      </c>
+      <c r="L36" t="s">
+        <v>106</v>
+      </c>
+      <c r="M36" t="s">
+        <v>119</v>
+      </c>
+      <c r="N36" t="s">
+        <v>120</v>
+      </c>
+      <c r="O36" t="s">
+        <v>110</v>
+      </c>
+      <c r="P36" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q36" t="s">
         <v>107</v>
       </c>
-      <c r="H36" t="s">
-        <v>107</v>
-      </c>
-      <c r="I36" t="s">
-        <v>120</v>
-      </c>
-      <c r="J36" t="s">
-        <v>107</v>
-      </c>
-      <c r="K36" t="s">
-        <v>120</v>
-      </c>
-      <c r="L36" t="s">
-        <v>107</v>
-      </c>
-      <c r="M36" t="s">
-        <v>120</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="R36" t="s">
+        <v>116</v>
+      </c>
+      <c r="S36" t="s">
         <v>121</v>
       </c>
-      <c r="O36" t="s">
-        <v>111</v>
-      </c>
-      <c r="P36" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>108</v>
-      </c>
-      <c r="R36" t="s">
-        <v>117</v>
-      </c>
-      <c r="S36" t="s">
-        <v>122</v>
-      </c>
       <c r="T36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U36" t="s">
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="W36" t="s">
-        <v>151</v>
+        <v>771</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="45" x14ac:dyDescent="0.2">
@@ -5103,55 +5156,55 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="C37" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E37" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H37" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S37" t="s">
         <v>30</v>
@@ -5163,10 +5216,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="W37" t="s">
-        <v>147</v>
+        <v>771</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
@@ -5174,13 +5227,13 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E38" t="s">
         <v>47</v>
@@ -5189,83 +5242,83 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H38" t="s">
+        <v>109</v>
+      </c>
+      <c r="I38" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" t="s">
+        <v>109</v>
+      </c>
+      <c r="K38" t="s">
+        <v>121</v>
+      </c>
+      <c r="L38" t="s">
+        <v>116</v>
+      </c>
+      <c r="M38" t="s">
+        <v>109</v>
+      </c>
+      <c r="N38" t="s">
+        <v>125</v>
+      </c>
+      <c r="O38" t="s">
+        <v>109</v>
+      </c>
+      <c r="P38" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>107</v>
+      </c>
+      <c r="R38" t="s">
         <v>108</v>
       </c>
-      <c r="H38" t="s">
-        <v>110</v>
-      </c>
-      <c r="I38" t="s">
-        <v>110</v>
-      </c>
-      <c r="J38" t="s">
-        <v>110</v>
-      </c>
-      <c r="K38" t="s">
-        <v>122</v>
-      </c>
-      <c r="L38" t="s">
-        <v>117</v>
-      </c>
-      <c r="M38" t="s">
-        <v>110</v>
-      </c>
-      <c r="N38" t="s">
-        <v>126</v>
-      </c>
-      <c r="O38" t="s">
-        <v>110</v>
-      </c>
-      <c r="P38" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>108</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
+        <v>107</v>
+      </c>
+      <c r="T38" t="s">
         <v>109</v>
-      </c>
-      <c r="S38" t="s">
-        <v>108</v>
-      </c>
-      <c r="T38" t="s">
-        <v>110</v>
       </c>
       <c r="U38" t="s">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="W38" t="s">
-        <v>188</v>
+        <v>771</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B39" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="U39" t="s">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="B40" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E40" t="s">
         <v>51</v>
@@ -5274,45 +5327,45 @@
         <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U40" t="s">
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="B41" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="C41" t="s">
         <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E41" t="s">
         <v>46</v>
@@ -5321,45 +5374,45 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U41" t="s">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B42" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="U42" t="s">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
@@ -5367,21 +5420,21 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="U43" t="s">
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B44" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>32</v>
@@ -5390,13 +5443,13 @@
         <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I44" t="s">
         <v>30</v>
@@ -5438,15 +5491,15 @@
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B45" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>31</v>
@@ -5455,13 +5508,13 @@
         <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="G45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I45" t="s">
         <v>30</v>
@@ -5500,10 +5553,10 @@
         <v>30</v>
       </c>
       <c r="U45" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="V45" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
@@ -5511,27 +5564,27 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="U46" t="s">
         <v>0</v>
       </c>
       <c r="V46" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="C47" t="s">
         <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E47" t="s">
         <v>47</v>
@@ -5540,10 +5593,10 @@
         <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I47" t="s">
         <v>30</v>
@@ -5585,21 +5638,21 @@
         <v>17</v>
       </c>
       <c r="V47" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="B48" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E48" t="s">
         <v>47</v>
@@ -5608,31 +5661,31 @@
         <v>63</v>
       </c>
       <c r="G48" t="s">
+        <v>126</v>
+      </c>
+      <c r="I48" t="s">
+        <v>121</v>
+      </c>
+      <c r="K48" t="s">
+        <v>121</v>
+      </c>
+      <c r="M48" t="s">
+        <v>107</v>
+      </c>
+      <c r="O48" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q48" t="s">
         <v>127</v>
       </c>
-      <c r="I48" t="s">
-        <v>122</v>
-      </c>
-      <c r="K48" t="s">
-        <v>122</v>
-      </c>
-      <c r="M48" t="s">
-        <v>108</v>
-      </c>
-      <c r="O48" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>128</v>
-      </c>
       <c r="S48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U48" t="s">
         <v>17</v>
       </c>
       <c r="V48" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -5643,22 +5696,22 @@
         <v>18</v>
       </c>
       <c r="C49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F49" t="s">
         <v>101</v>
       </c>
-      <c r="D49" t="s">
-        <v>228</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F49" t="s">
-        <v>102</v>
-      </c>
       <c r="G49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I49" t="s">
         <v>30</v>
@@ -5688,36 +5741,36 @@
         <v>17</v>
       </c>
       <c r="V49" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="W49" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="B50" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D50" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I50" t="s">
         <v>30</v>
@@ -5747,10 +5800,10 @@
         <v>17</v>
       </c>
       <c r="V50" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="W50" t="s">
-        <v>175</v>
+        <v>771</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -5758,25 +5811,25 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D51" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I51" t="s">
         <v>30</v>
@@ -5797,13 +5850,13 @@
         <v>30</v>
       </c>
       <c r="O51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P51" t="s">
         <v>30</v>
       </c>
       <c r="S51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T51" t="s">
         <v>30</v>
@@ -5812,33 +5865,33 @@
         <v>17</v>
       </c>
       <c r="V51" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="W51" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="B52" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="C52" t="s">
         <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E52" t="s">
         <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H52" t="s">
         <v>30</v>
@@ -5883,10 +5936,10 @@
         <v>17</v>
       </c>
       <c r="V52" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="W52" t="s">
-        <v>224</v>
+        <v>771</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="45" x14ac:dyDescent="0.2">
@@ -5894,22 +5947,22 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D53" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="G53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H53" t="s">
         <v>30</v>
@@ -5948,24 +6001,24 @@
         <v>17</v>
       </c>
       <c r="V53" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="W53" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="B54" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="C54" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D54" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E54" t="s">
         <v>47</v>
@@ -5974,22 +6027,22 @@
         <v>68</v>
       </c>
       <c r="G54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I54" t="s">
+        <v>107</v>
+      </c>
+      <c r="K54" t="s">
+        <v>126</v>
+      </c>
+      <c r="M54" t="s">
+        <v>126</v>
+      </c>
+      <c r="O54" t="s">
         <v>108</v>
       </c>
-      <c r="K54" t="s">
-        <v>127</v>
-      </c>
-      <c r="M54" t="s">
-        <v>127</v>
-      </c>
-      <c r="O54" t="s">
+      <c r="Q54" t="s">
         <v>109</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>110</v>
       </c>
       <c r="S54" t="s">
         <v>30</v>
@@ -5998,30 +6051,30 @@
         <v>17</v>
       </c>
       <c r="V54" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" t="s">
+        <v>539</v>
+      </c>
+      <c r="C55" t="s">
         <v>130</v>
       </c>
-      <c r="B55" t="s">
-        <v>552</v>
-      </c>
-      <c r="C55" t="s">
-        <v>131</v>
-      </c>
       <c r="D55" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="F55" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="G55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H55" t="s">
         <v>30</v>
@@ -6054,30 +6107,30 @@
         <v>17</v>
       </c>
       <c r="V55" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B56" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="C56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F56" t="s">
         <v>96</v>
       </c>
-      <c r="D56" t="s">
-        <v>235</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F56" t="s">
-        <v>97</v>
-      </c>
       <c r="G56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H56" t="s">
         <v>30</v>
@@ -6110,27 +6163,27 @@
         <v>17</v>
       </c>
       <c r="V56" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" t="s">
+        <v>538</v>
+      </c>
+      <c r="C57" t="s">
         <v>98</v>
       </c>
-      <c r="B57" t="s">
-        <v>551</v>
-      </c>
-      <c r="C57" t="s">
-        <v>99</v>
-      </c>
       <c r="D57" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="F57" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>
@@ -6166,27 +6219,27 @@
         <v>17</v>
       </c>
       <c r="V57" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>762</v>
       </c>
       <c r="B58" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D58" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s">
         <v>30</v>
@@ -6228,27 +6281,27 @@
         <v>17</v>
       </c>
       <c r="V58" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="W58" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="B59" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F59" t="s">
         <v>67</v>
@@ -6299,10 +6352,10 @@
         <v>17</v>
       </c>
       <c r="V59" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="W59" t="s">
-        <v>224</v>
+        <v>771</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -6313,16 +6366,16 @@
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G60" t="s">
         <v>30</v>
@@ -6364,30 +6417,30 @@
         <v>17</v>
       </c>
       <c r="V60" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="W60" t="s">
-        <v>151</v>
+        <v>771</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="B61" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="C61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" t="s">
+        <v>229</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F61" t="s">
         <v>83</v>
-      </c>
-      <c r="D61" t="s">
-        <v>240</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F61" t="s">
-        <v>84</v>
       </c>
       <c r="G61" t="s">
         <v>30</v>
@@ -6429,27 +6482,27 @@
         <v>17</v>
       </c>
       <c r="V61" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="W61" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="B62" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
       </c>
       <c r="D62" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="F62" t="s">
         <v>70</v>
@@ -6494,10 +6547,10 @@
         <v>17</v>
       </c>
       <c r="V62" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="W62" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -6505,16 +6558,16 @@
         <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="C63" t="s">
         <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="F63" t="s">
         <v>74</v>
@@ -6559,27 +6612,27 @@
         <v>17</v>
       </c>
       <c r="V63" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="W63" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="B64" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
       </c>
       <c r="D64" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F64" t="s">
         <v>72</v>
@@ -6624,10 +6677,10 @@
         <v>17</v>
       </c>
       <c r="V64" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="W64" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -6635,19 +6688,19 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="C65" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" t="s">
+        <v>241</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F65" t="s">
         <v>93</v>
-      </c>
-      <c r="D65" t="s">
-        <v>252</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F65" t="s">
-        <v>94</v>
       </c>
       <c r="G65" t="s">
         <v>30</v>
@@ -6683,7 +6736,7 @@
         <v>17</v>
       </c>
       <c r="V65" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -6691,19 +6744,19 @@
         <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="C66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G66" t="s">
         <v>30</v>
@@ -6739,21 +6792,21 @@
         <v>17</v>
       </c>
       <c r="V66" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B67" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="C67" t="s">
         <v>64</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E67" t="s">
         <v>46</v>
@@ -6807,24 +6860,24 @@
         <v>17</v>
       </c>
       <c r="V67" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="W67" t="s">
-        <v>175</v>
+        <v>771</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B68" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="C68" t="s">
         <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="E68" t="s">
         <v>46</v>
@@ -6878,24 +6931,24 @@
         <v>17</v>
       </c>
       <c r="V68" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="W68" t="s">
-        <v>175</v>
+        <v>771</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="C69" t="s">
         <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E69" t="s">
         <v>48</v>
@@ -6949,10 +7002,10 @@
         <v>17</v>
       </c>
       <c r="V69" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="W69" t="s">
-        <v>175</v>
+        <v>771</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -6960,19 +7013,19 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="C70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" t="s">
+        <v>246</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F70" t="s">
         <v>87</v>
-      </c>
-      <c r="D70" t="s">
-        <v>257</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F70" t="s">
-        <v>88</v>
       </c>
       <c r="G70" t="s">
         <v>30</v>
@@ -7014,10 +7067,10 @@
         <v>17</v>
       </c>
       <c r="V70" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="W70" t="s">
-        <v>258</v>
+        <v>771</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -7028,16 +7081,16 @@
         <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D71" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G71" t="s">
         <v>30</v>
@@ -7079,21 +7132,21 @@
         <v>17</v>
       </c>
       <c r="V71" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="W71" t="s">
-        <v>151</v>
+        <v>771</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B72" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="F72" t="s">
         <v>58</v>
@@ -7138,18 +7191,18 @@
         <v>17</v>
       </c>
       <c r="V72" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="B73" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F73" t="s">
         <v>58</v>
@@ -7194,188 +7247,188 @@
         <v>17</v>
       </c>
       <c r="V73" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B74" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="U74" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="V74" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B75" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="U75" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="V75" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B76" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="U76" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="V76" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B77" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="U77" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="V77" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B78" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="U78" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="V78" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B79" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="U79" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="V79" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="B80" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="C80" t="s">
         <v>57</v>
       </c>
       <c r="D80" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F80" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G80" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="I80" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="K80" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="M80" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="O80" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="U80" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="V80" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B81" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="U81" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="V81" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B82" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="U82" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="V82" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B83" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="U83" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="V83" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B84" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="U84" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="V84" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -7383,16 +7436,16 @@
         <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="C85" t="s">
         <v>53</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F85" t="s">
         <v>55</v>
@@ -7428,58 +7481,58 @@
         <v>30</v>
       </c>
       <c r="U85" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="V85" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="W85" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B86" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="U86" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="V86" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B87" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="U87" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="V87" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B88" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="C88" t="s">
         <v>54</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="F88" t="s">
         <v>56</v>
@@ -7515,30 +7568,30 @@
         <v>30</v>
       </c>
       <c r="U88" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="V88" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="W88" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B89" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="C89" t="s">
         <v>54</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F89" t="s">
         <v>56</v>
@@ -7574,30 +7627,30 @@
         <v>30</v>
       </c>
       <c r="U89" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="V89" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="W89" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B90" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C90" t="s">
         <v>54</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F90" t="s">
         <v>56</v>
@@ -7633,171 +7686,171 @@
         <v>30</v>
       </c>
       <c r="U90" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="V90" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="W90" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B91" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="U91" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="V91" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B92" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="U92" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="V92" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B93" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="U93" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="V93" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B94" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="U94" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="V94" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B95" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="C95" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D95" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="U95" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="V95" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="W95" s="2" t="s">
-        <v>152</v>
+        <v>771</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="B96" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="C96" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D96" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E96" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I96" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K96" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M96" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="O96" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U96" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="V96" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="B97" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="C97" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D97" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E97" t="s">
         <v>46</v>
       </c>
       <c r="G97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I97" t="s">
+        <v>107</v>
+      </c>
+      <c r="K97" t="s">
+        <v>126</v>
+      </c>
+      <c r="M97" t="s">
+        <v>126</v>
+      </c>
+      <c r="O97" t="s">
         <v>108</v>
       </c>
-      <c r="K97" t="s">
-        <v>127</v>
-      </c>
-      <c r="M97" t="s">
-        <v>127</v>
-      </c>
-      <c r="O97" t="s">
+      <c r="Q97" t="s">
         <v>109</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>110</v>
       </c>
       <c r="S97" t="s">
         <v>30</v>
@@ -7806,48 +7859,48 @@
         <v>17</v>
       </c>
       <c r="V97" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="W97" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B98" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="C98" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D98" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E98" t="s">
         <v>46</v>
       </c>
       <c r="F98" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="G98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I98" t="s">
+        <v>107</v>
+      </c>
+      <c r="K98" t="s">
+        <v>126</v>
+      </c>
+      <c r="M98" t="s">
+        <v>126</v>
+      </c>
+      <c r="O98" t="s">
         <v>108</v>
       </c>
-      <c r="K98" t="s">
-        <v>127</v>
-      </c>
-      <c r="M98" t="s">
-        <v>127</v>
-      </c>
-      <c r="O98" t="s">
+      <c r="Q98" t="s">
         <v>109</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>110</v>
       </c>
       <c r="S98" t="s">
         <v>30</v>
@@ -7856,33 +7909,33 @@
         <v>17</v>
       </c>
       <c r="V98" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="75" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B99" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="C99" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E99" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I99" t="s">
         <v>30</v>
@@ -7921,39 +7974,39 @@
         <v>30</v>
       </c>
       <c r="U99" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="V99" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="W99" s="2" t="s">
-        <v>207</v>
+        <v>772</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="90" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B100" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="C100" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E100" t="s">
         <v>46</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I100" t="s">
         <v>30</v>
@@ -7992,39 +8045,39 @@
         <v>30</v>
       </c>
       <c r="U100" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="V100" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="W100" s="2" t="s">
-        <v>207</v>
+        <v>772</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="75" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B101" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="C101" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E101" t="s">
         <v>46</v>
       </c>
       <c r="F101" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I101" t="s">
         <v>30</v>
@@ -8063,39 +8116,39 @@
         <v>30</v>
       </c>
       <c r="U101" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="V101" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="W101" s="2" t="s">
-        <v>194</v>
+        <v>772</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="75" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B102" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="C102" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E102" t="s">
         <v>46</v>
       </c>
       <c r="F102" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I102" t="s">
         <v>30</v>
@@ -8134,36 +8187,36 @@
         <v>30</v>
       </c>
       <c r="U102" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="V102" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="W102" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" ht="60" x14ac:dyDescent="0.2">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="B103" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="C103" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E103" t="s">
         <v>46</v>
       </c>
       <c r="G103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I103" t="s">
         <v>30</v>
@@ -8202,13 +8255,13 @@
         <v>30</v>
       </c>
       <c r="U103" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="V103" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="W103" s="2" t="s">
-        <v>194</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -8220,6 +8273,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>774</v>
+      </c>
+      <c r="B3" t="s">
+        <v>764</v>
+      </c>
+      <c r="C3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>775</v>
+      </c>
+      <c r="B4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>777</v>
+      </c>
+      <c r="B5" t="s">
+        <v>776</v>
+      </c>
+      <c r="C5" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -8231,45 +8358,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="C1" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B2" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="B4" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="B5" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -8278,12 +8405,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8296,140 +8423,146 @@
     <col min="6" max="6" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="D1" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="E1" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="F1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>751</v>
+      </c>
+      <c r="G1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8">
         <v>9814446</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8">
         <v>1722826</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8">
         <v>367806</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8">
         <v>367806</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8">
         <v>367806</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8">
         <v>367806</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8">
@@ -8437,443 +8570,443 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8">
         <v>2337712</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8">
         <v>2337712</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8">
         <v>2337712</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8">
         <v>676822</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8">
         <v>1214830</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8">
         <v>8500239</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="8">
         <v>7072081</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="10"/>
       <c r="E16" s="4" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="11" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="13"/>
       <c r="E19" s="4" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D20" s="8">
         <v>341573</v>
       </c>
       <c r="E20" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D21" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E21" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>644</v>
+        <v>758</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="E23" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="8">
         <v>110430</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="8">
         <v>232503</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="8">
         <v>28972</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="15" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E27" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="15" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="15" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E29" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E30" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="8">
         <v>45734</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="8">
@@ -8883,782 +9016,782 @@
         <v>21</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="8">
         <v>12549</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>416</v>
+        <v>759</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="18" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="18" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="18" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="18" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="18" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="18" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="18" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="18" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="18" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C46" s="20"/>
       <c r="E46" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C47" s="20"/>
       <c r="E47" s="4" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="C48" s="20"/>
       <c r="E48" s="4" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="C49" s="20"/>
       <c r="E49" s="4" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="C50" s="20"/>
       <c r="E50" s="4" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="C51" s="23"/>
       <c r="E51" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="24" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C52" s="25"/>
       <c r="E52" s="4" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C53" s="25"/>
       <c r="E53" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C54" s="25"/>
       <c r="E54" s="4" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C55" s="25"/>
       <c r="E55" s="4" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C56" s="23"/>
       <c r="E56" s="4" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="27">
         <v>1998182</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="27">
         <v>1998182</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="28">
         <v>56882</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="28">
         <v>56882</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="29">
         <v>3184</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="30" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="C62" s="31"/>
       <c r="D62" s="29">
         <v>3184</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="28">
         <v>14963449</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="29">
         <v>6944</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="29">
         <v>23995</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="29">
         <v>6575</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="29">
         <v>9775</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="29">
         <v>7264</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="29">
         <v>22114</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="29">
         <v>10354</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="29">
         <v>274</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="29">
         <v>5741</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="29">
         <v>7731871</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="29">
         <v>7073228</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="29">
         <v>65314</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="29"/>
       <c r="E76" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="29">
         <v>1179391</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="29">
         <v>173531</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -9669,7 +9802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -9688,291 +9821,291 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="B1" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="C1" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="D1" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="E1" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="B2" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D2" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="B3" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D3" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E3" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="B4" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D4" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E4" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="B5" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="C5" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D5" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E5" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="B6" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D6" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="E6" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="B7" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="C7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="E7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="B8" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="C8" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D8" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E8" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="B9" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="C9" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="E9" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="B10" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="C10" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D10" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E10" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="B11" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="C11" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D11" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="E11" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B12" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C12" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="D12" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E12" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C13" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="D13" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E13" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B14" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C14" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="D14" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14" t="s">
         <v>321</v>
-      </c>
-      <c r="E14" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B15" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="C15" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="D15" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E15" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B16" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="C16" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="D16" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="E16" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="B17" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="C17" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="D17" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E17" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -9982,7 +10115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1"/>
   <sheetViews>
@@ -9994,73 +10127,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="C1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E1" t="s">
+        <v>728</v>
+      </c>
+      <c r="F1" t="s">
+        <v>729</v>
+      </c>
+      <c r="G1" t="s">
+        <v>730</v>
+      </c>
+      <c r="H1" t="s">
+        <v>732</v>
+      </c>
+      <c r="I1" t="s">
+        <v>731</v>
+      </c>
+      <c r="J1" t="s">
+        <v>733</v>
+      </c>
+      <c r="K1" t="s">
+        <v>734</v>
+      </c>
+      <c r="L1" t="s">
+        <v>735</v>
+      </c>
+      <c r="M1" t="s">
+        <v>736</v>
+      </c>
+      <c r="N1" t="s">
+        <v>737</v>
+      </c>
+      <c r="O1" t="s">
         <v>738</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="P1" t="s">
         <v>739</v>
       </c>
-      <c r="C1" t="s">
+      <c r="Q1" t="s">
         <v>740</v>
       </c>
-      <c r="D1" t="s">
+      <c r="R1" t="s">
         <v>741</v>
       </c>
-      <c r="E1" t="s">
+      <c r="S1" t="s">
         <v>742</v>
       </c>
-      <c r="F1" t="s">
+      <c r="T1" t="s">
         <v>743</v>
       </c>
-      <c r="G1" t="s">
+      <c r="U1" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="H1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="I1" t="s">
-        <v>745</v>
-      </c>
-      <c r="J1" t="s">
-        <v>747</v>
-      </c>
-      <c r="K1" t="s">
-        <v>748</v>
-      </c>
-      <c r="L1" t="s">
-        <v>749</v>
-      </c>
-      <c r="M1" t="s">
-        <v>750</v>
-      </c>
-      <c r="N1" t="s">
-        <v>751</v>
-      </c>
-      <c r="O1" t="s">
-        <v>752</v>
-      </c>
-      <c r="P1" t="s">
-        <v>753</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>754</v>
-      </c>
-      <c r="R1" t="s">
-        <v>755</v>
-      </c>
-      <c r="S1" t="s">
-        <v>756</v>
-      </c>
-      <c r="T1" t="s">
-        <v>757</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -10069,7 +10202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
@@ -10081,13 +10214,13 @@
   <sheetData>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D2" s="8">
         <v>39011882</v>
@@ -10095,25 +10228,25 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8">
         <v>16134442</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8">
@@ -10121,120 +10254,120 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D5" s="8">
         <v>1665254</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="6" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="26" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="D9" s="8">
         <v>4805139</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="11" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="E10" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8">
         <v>15572320</v>
       </c>
       <c r="E11" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
